--- a/data/input/absenteeism_data_24.xlsx
+++ b/data/input/absenteeism_data_24.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55675</v>
+        <v>43386</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Danilo Cavalcanti</t>
+          <t>Sra. Natália Barros</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45090</v>
       </c>
       <c r="G2" t="n">
-        <v>6372.83</v>
+        <v>3441.84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>176</v>
+        <v>81257</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Cauê Alves</t>
+          <t>Carlos Eduardo Lima</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45100</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>9239.41</v>
+        <v>7862.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>54831</v>
+        <v>59976</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>João Felipe Costela</t>
+          <t>Vinicius Caldeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -555,140 +555,140 @@
         <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45097</v>
+        <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>4363.55</v>
+        <v>9158.809999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>60567</v>
+        <v>47027</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thiago da Paz</t>
+          <t>Kamilly Monteiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45098</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>3467.07</v>
+        <v>3484.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>476</v>
+        <v>69424</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Júlia Cardoso</t>
+          <t>Matheus Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45103</v>
+        <v>45097</v>
       </c>
       <c r="G6" t="n">
-        <v>7121.06</v>
+        <v>6061.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25689</v>
+        <v>71601</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Isadora Jesus</t>
+          <t>Sarah da Rocha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>8799.01</v>
+        <v>6579.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>64058</v>
+        <v>24765</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Benjamin Novaes</t>
+          <t>Sr. Vitor Hugo Correia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45089</v>
       </c>
       <c r="G8" t="n">
-        <v>9835.15</v>
+        <v>3254.56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>823</v>
+        <v>98003</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pietro da Costa</t>
+          <t>Rebeca Pires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45093</v>
+        <v>45078</v>
       </c>
       <c r="G9" t="n">
-        <v>6699.52</v>
+        <v>9559.93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>38312</v>
+        <v>47377</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pedro Fernandes</t>
+          <t>Maria Clara Pinto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>2949.35</v>
+        <v>9123.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34749</v>
+        <v>34260</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Thomas Teixeira</t>
+          <t>Ana Lívia Freitas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45081</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>5248.34</v>
+        <v>5693.22</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_24.xlsx
+++ b/data/input/absenteeism_data_24.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43386</v>
+        <v>63682</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Natália Barros</t>
+          <t>Ana Vitória Cardoso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>3441.84</v>
+        <v>7185.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>81257</v>
+        <v>80841</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Lima</t>
+          <t>Paulo Peixoto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45094</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>7862.24</v>
+        <v>3720.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>59976</v>
+        <v>55358</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vinicius Caldeira</t>
+          <t>Raquel da Luz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45079</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>9158.809999999999</v>
+        <v>3116.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>47027</v>
+        <v>66924</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kamilly Monteiro</t>
+          <t>Paulo Monteiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,22 +581,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45105</v>
       </c>
       <c r="G5" t="n">
-        <v>3484.88</v>
+        <v>10958.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69424</v>
+        <v>52041</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Matheus Rocha</t>
+          <t>Dra. Júlia Ribeiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,31 +606,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>6061.3</v>
+        <v>3822.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>71601</v>
+        <v>68890</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sarah da Rocha</t>
+          <t>Dra. Laura Moraes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45082</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="n">
-        <v>6579.82</v>
+        <v>12381.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24765</v>
+        <v>25067</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Vitor Hugo Correia</t>
+          <t>Maria Julia Rodrigues</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>3254.56</v>
+        <v>4449.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98003</v>
+        <v>87302</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rebeca Pires</t>
+          <t>Leonardo Mendes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45078</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>9559.93</v>
+        <v>4921.49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47377</v>
+        <v>13118</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maria Clara Pinto</t>
+          <t>Felipe Cardoso</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>9123.01</v>
+        <v>11212.44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34260</v>
+        <v>9621</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Lívia Freitas</t>
+          <t>Caroline da Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45106</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>5693.22</v>
+        <v>6868.02</v>
       </c>
     </row>
   </sheetData>
